--- a/variant_check/Data_Not_Found.xlsx
+++ b/variant_check/Data_Not_Found.xlsx
@@ -14,84 +14,381 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>5277+1G&gt;A</t>
-  </si>
-  <si>
-    <t>IVS16+6T&gt;C</t>
-  </si>
-  <si>
-    <t>442-?_593+?del</t>
-  </si>
-  <si>
-    <t>5’UTR_3’UTRdel</t>
-  </si>
-  <si>
-    <t>5’UTR_EX1del</t>
-  </si>
-  <si>
-    <t>5’UTR_EX2dup</t>
-  </si>
-  <si>
-    <t>EX12_15del</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
+  <si>
+    <t>original_input</t>
+  </si>
+  <si>
+    <t>term_searched</t>
+  </si>
+  <si>
+    <t>442-? 593+?del</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mutation-no report</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NPEPPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PLEKHA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRAF3</t>
+  </si>
+  <si>
+    <t>499G&gt;A Gly167Arg</t>
+  </si>
+  <si>
+    <t>7592 7595delITTCCins10 Val2531 Pro2532delinsAVGG</t>
+  </si>
+  <si>
+    <t>M1173V</t>
+  </si>
+  <si>
+    <t>Variant Not Stated</t>
+  </si>
+  <si>
+    <t>300T&gt;G C81G</t>
+  </si>
+  <si>
+    <t>c1061A&gt;G</t>
+  </si>
+  <si>
+    <t>c1418A&gt;T Asn47lle</t>
+  </si>
+  <si>
+    <t>2154A&gt;T K6789X</t>
+  </si>
+  <si>
+    <t>4964 4982del19-report</t>
+  </si>
+  <si>
+    <t>5266dupC Gln1758Profs*74</t>
+  </si>
+  <si>
+    <t>IVS8+8T&gt;G</t>
+  </si>
+  <si>
+    <t>IVS1-17 IVS1-13delTTTCTInsAA</t>
+  </si>
+  <si>
+    <t>IVS1-17 IVS1-13delTTTCTinsAA</t>
+  </si>
+  <si>
+    <t>IVS10-11T&gt;G</t>
+  </si>
+  <si>
+    <t>26delC (Pro9GlnfsX16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 69delAG E23fs*17</t>
+  </si>
+  <si>
+    <t>V47F</t>
+  </si>
+  <si>
+    <t>202A&gt;G (lle68VAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 213-11T&gt;G Intronic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 514delC Q172fs*62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 601G&gt;C D201H</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q202*</t>
+  </si>
+  <si>
+    <t>697 698delGT Val233AsnfsX4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R296I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 914 915delGT C305fs*1</t>
+  </si>
+  <si>
+    <t>1016dupA Val340GlyfsX6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1836 1837insG R613fs*12</t>
+  </si>
+  <si>
+    <t>1875del Val626*</t>
+  </si>
+  <si>
+    <t>1899A&gt;G M594V</t>
+  </si>
+  <si>
+    <t>1996C&gt;A L666l</t>
+  </si>
+  <si>
+    <t>2199del Lys734Asnfs*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2289 2697del409 V764fs*100</t>
+  </si>
+  <si>
+    <t>2411 2412del 2411 2412del (Gln804Leufs*5)</t>
+  </si>
+  <si>
+    <t>2457del Asp821llefs*25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2673 2697del25 K893fs*99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2744 2745delCT S915fs*1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3296delC P1099fs*10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3403delC Q1135fs*20</t>
+  </si>
+  <si>
+    <t>3587C&gt;T Thr1196lle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3624 3639delATTAGAGTCCTCAGAA L1209fs*21</t>
+  </si>
+  <si>
+    <t>3700 3704del Val1234Glnfg=g</t>
+  </si>
+  <si>
+    <t>3700 3704del Val1234Glnfs*g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3700 3704delGTAAA V1234fs*8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3700 3721&gt;CAATACTATG V1234 S1241&gt;QYYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3756 3759delGTCT S1253fs*10</t>
+  </si>
+  <si>
+    <t>3857G&gt;T Ser1286lle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4040G&gt;C R1347T</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4065 4068delTCAA N1355fs*10</t>
+  </si>
+  <si>
+    <t>4643C&gt;T 4643C&gt;T(Thr1548Met)</t>
+  </si>
+  <si>
+    <t>4649C&gt;T Thr1550lle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4987-13G&gt;A</t>
+  </si>
+  <si>
+    <t>5023A&gt;T 5023A&gt;T (T1675S</t>
+  </si>
+  <si>
+    <t>5096G&gt;A Arg1699Gin</t>
+  </si>
+  <si>
+    <t>5266dupC Gin1756Profs*74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5266 5267insC Q1756fs*74</t>
+  </si>
+  <si>
+    <t>deletion (exons 4-13)</t>
   </si>
   <si>
     <t>EX20del</t>
   </si>
   <si>
-    <t>EX22_3’UTRdel</t>
-  </si>
-  <si>
-    <t>EX6_7del</t>
-  </si>
-  <si>
-    <t>212+1G&gt;A</t>
-  </si>
-  <si>
-    <t>4096+1G&gt;A</t>
-  </si>
-  <si>
-    <t>4357+1G&gt;A</t>
-  </si>
-  <si>
-    <t>4964_4982del19-report</t>
-  </si>
-  <si>
-    <t>4986+6T&gt;C</t>
-  </si>
-  <si>
-    <t>7592_7595delITTCCins10 Val2531_Pro2532delinsAVGG</t>
-  </si>
-  <si>
-    <t>IVS1-17_IVS1-13delTTTCTInsAA</t>
-  </si>
-  <si>
-    <t>IVS1-17_IVS1-13delTTTCTinsAA</t>
-  </si>
-  <si>
-    <t>IVS10-11T&gt;G</t>
-  </si>
-  <si>
-    <t>IVS8+8T&gt;G</t>
-  </si>
-  <si>
-    <t>c1061A&gt;G</t>
-  </si>
-  <si>
-    <t>c1418A&gt;T Asn47lle</t>
-  </si>
-  <si>
-    <t>deletion (exons 4-13)</t>
-  </si>
-  <si>
-    <t>D1813E</t>
-  </si>
-  <si>
-    <t>M1173V</t>
-  </si>
-  <si>
-    <t>V47F</t>
+    <t>EX22 3’UTRdel</t>
+  </si>
+  <si>
+    <t>5’UTR 3’UTRdel</t>
+  </si>
+  <si>
+    <t>5’UTR EX1del</t>
+  </si>
+  <si>
+    <t>593+?del</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>NPEPPS</t>
+  </si>
+  <si>
+    <t>PLEKHA7</t>
+  </si>
+  <si>
+    <t>TRAF3</t>
+  </si>
+  <si>
+    <t>Gly167Arg</t>
+  </si>
+  <si>
+    <t>Pro2532delinsAVGG</t>
+  </si>
+  <si>
+    <t>Stated</t>
+  </si>
+  <si>
+    <t>C81G</t>
+  </si>
+  <si>
+    <t>Asn47lle</t>
+  </si>
+  <si>
+    <t>K6789X</t>
+  </si>
+  <si>
+    <t>4982del19-report</t>
+  </si>
+  <si>
+    <t>Gln1758Profs*74</t>
+  </si>
+  <si>
+    <t>IVS1-13delTTTCTInsAA</t>
+  </si>
+  <si>
+    <t>IVS1-13delTTTCTinsAA</t>
+  </si>
+  <si>
+    <t>(Pro9GlnfsX16)</t>
+  </si>
+  <si>
+    <t>E23fs*17</t>
+  </si>
+  <si>
+    <t>(lle68VAL)</t>
+  </si>
+  <si>
+    <t>Intronic</t>
+  </si>
+  <si>
+    <t>Q172fs*62</t>
+  </si>
+  <si>
+    <t>D201H</t>
+  </si>
+  <si>
+    <t>Q202*</t>
+  </si>
+  <si>
+    <t>Val233AsnfsX4</t>
+  </si>
+  <si>
+    <t>R296I</t>
+  </si>
+  <si>
+    <t>C305fs*1</t>
+  </si>
+  <si>
+    <t>Val340GlyfsX6</t>
+  </si>
+  <si>
+    <t>R613fs*12</t>
+  </si>
+  <si>
+    <t>Val626*</t>
+  </si>
+  <si>
+    <t>M594V</t>
+  </si>
+  <si>
+    <t>L666l</t>
+  </si>
+  <si>
+    <t>Lys734Asnfs*2</t>
+  </si>
+  <si>
+    <t>V764fs*100</t>
+  </si>
+  <si>
+    <t>(Gln804Leufs*5)</t>
+  </si>
+  <si>
+    <t>Asp821llefs*25</t>
+  </si>
+  <si>
+    <t>K893fs*99</t>
+  </si>
+  <si>
+    <t>S915fs*1</t>
+  </si>
+  <si>
+    <t>P1099fs*10</t>
+  </si>
+  <si>
+    <t>Q1135fs*20</t>
+  </si>
+  <si>
+    <t>Thr1196lle</t>
+  </si>
+  <si>
+    <t>L1209fs*21</t>
+  </si>
+  <si>
+    <t>Val1234Glnfg=g</t>
+  </si>
+  <si>
+    <t>Val1234Glnfs*g</t>
+  </si>
+  <si>
+    <t>V1234fs*8</t>
+  </si>
+  <si>
+    <t>S1241&gt;QYYA</t>
+  </si>
+  <si>
+    <t>S1253fs*10</t>
+  </si>
+  <si>
+    <t>Ser1286lle</t>
+  </si>
+  <si>
+    <t>R1347T</t>
+  </si>
+  <si>
+    <t>N1355fs*10</t>
+  </si>
+  <si>
+    <t>4643C&gt;T(Thr1548Met)</t>
+  </si>
+  <si>
+    <t>Thr1550lle</t>
+  </si>
+  <si>
+    <t>4987-13G&gt;A</t>
+  </si>
+  <si>
+    <t>(T1675S</t>
+  </si>
+  <si>
+    <t>Arg1699Gin</t>
+  </si>
+  <si>
+    <t>Gin1756Profs*74</t>
+  </si>
+  <si>
+    <t>Q1756fs*74</t>
+  </si>
+  <si>
+    <t>4-13)</t>
+  </si>
+  <si>
+    <t>3’UTRdel</t>
+  </si>
+  <si>
+    <t>EX1del</t>
   </si>
 </sst>
 </file>
@@ -449,223 +746,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
